--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
